--- a/ControlUnit.xlsx
+++ b/ControlUnit.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="52">
   <si>
     <t>NOP</t>
   </si>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+      <selection activeCell="B32" sqref="B32:T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,6 +810,9 @@
       <c r="L4">
         <v>0</v>
       </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
       <c r="N4" t="s">
         <v>50</v>
       </c>
@@ -869,6 +872,9 @@
       <c r="L5">
         <v>0</v>
       </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
       <c r="N5" t="s">
         <v>50</v>
       </c>
@@ -928,6 +934,9 @@
       <c r="L6">
         <v>0</v>
       </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
       <c r="N6" t="s">
         <v>50</v>
       </c>
@@ -987,6 +996,9 @@
       <c r="L7">
         <v>0</v>
       </c>
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
       <c r="N7" t="s">
         <v>50</v>
       </c>
@@ -2561,6 +2573,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>